--- a/ui.xlsx
+++ b/ui.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24498C87-4BEE-4568-A816-C8FB7345CF41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="materialUi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="1252"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>label</t>
   </si>
@@ -97,6 +98,9 @@
     <t>Marital Status</t>
   </si>
   <si>
+    <t>Married,Unmarried</t>
+  </si>
+  <si>
     <t>Married</t>
   </si>
   <si>
@@ -160,13 +164,25 @@
     <t>value</t>
   </si>
   <si>
-    <t>[{value: 'Male', text: 'Male'}, {value: 'Female', text: Female'}, {value: 'Other', text: 'Other'}]</t>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>columnNames</t>
+  </si>
+  <si>
+    <t>ID,First name,Last name,Age</t>
+  </si>
+  <si>
+    <t>1, Joe,Baiden,62; 2,Don,Trump,62; 3,Washi,george,70</t>
+  </si>
+  <si>
+    <t>rowData</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -191,7 +207,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +226,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -388,12 +410,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -452,6 +483,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1062,80 +1097,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.90625" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.90625" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="2"/>
@@ -1151,9 +1187,9 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1172,7 +1208,7 @@
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1251,7 @@
       </c>
       <c r="P4" s="14"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1263,7 +1299,7 @@
       </c>
       <c r="P5" s="14"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1309,7 +1345,7 @@
       </c>
       <c r="P6" s="14"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>18</v>
       </c>
@@ -1349,7 +1385,7 @@
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -1380,7 +1416,7 @@
         <v>dropDownList</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="K8" s="17" t="str">
         <f t="shared" ref="K8" si="9">IF($A8="Button","mode",IF($A8="DropDown","mode",IF($A8="CheckBox","mode",IF($A8="RadioButton","mode",IF($A8="TextInput","mode",IF($A8="LineSeperator","",IF($A8="LineBreak","",IF($A8="Chart","mode",IF($A8="Multiselect","mode",IF($A8="ToastProvider","mode",""))))))))))</f>
@@ -1392,7 +1428,7 @@
         <v>value</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O8" s="14" t="str">
         <f t="shared" si="4"/>
@@ -1400,9 +1436,9 @@
       </c>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="8" t="str">
@@ -1410,14 +1446,14 @@
         <v>checkBoxName</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="8" t="str">
         <f t="shared" si="7"/>
         <v>checkBoxLabel</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G9" s="8" t="str">
         <f t="shared" si="8"/>
@@ -1431,7 +1467,7 @@
         <v>value</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="11" t="str">
         <f t="shared" si="3"/>
@@ -1449,9 +1485,9 @@
       </c>
       <c r="P9" s="14"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="8" t="str">
@@ -1492,7 +1528,7 @@
       </c>
       <c r="P10" s="14"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>18</v>
       </c>
@@ -1502,14 +1538,14 @@
         <v>radioButtonName</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="8" t="str">
         <f t="shared" ref="E11" si="13">IF($A11="Button","Buttonlabel",IF($A11="DropDown","dropDownLabel",IF($A11="CheckBox","checkBoxLabel",IF($A11="RadioButton","radioButtonLabel",IF($A11="TextInput","textInputLabel",IF($A11="Chart","width",IF($A11="Chart.yAxes","type",IF($A11="Chart.datasets","yAxisID",IF($A11="Multiselect","multiselectLabel",IF($A11="ToastProvider","toastProviderLabel",""))))))))))</f>
         <v>radioButtonLabel</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" s="8" t="str">
         <f t="shared" ref="G11" si="14">IF($A11="Button","mandatory",IF($A11="DropDown","mandatory",IF($A11="CheckBox","mandatory",IF($A11="RadioButton","mandatory",IF($A11="TextInput","mandatory",IF($A11="Chart","height",IF($A11="Chart.yAxes","position",IF($A11="Chart.datasets","data",IF($A11="Multiselect","mandatory",IF($A11="ToastProvider","mandatory",""))))))))))</f>
@@ -1530,6 +1566,23 @@
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
     </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="F5:F6 H5:H6 J5:J6 L5:L7 D5:D6 J10 H10 F10 L9:L10">
